--- a/biology/Botanique/Tillandsia_macdougallii/Tillandsia_macdougallii.xlsx
+++ b/biology/Botanique/Tillandsia_macdougallii/Tillandsia_macdougallii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia macdougallii L.B.Sm. est une plante de la famille des Bromeliaceae.
 Le terme macdougallii est une dédicace au botaniste-pépinièriste T. Macdougall, collecteur de la plante.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia macdougallii L.B.Sm., in Contr. U.S. Natl. Herb. 29(7): 277, fig. 2 (1949)
-Diagnose originale[1] :
+Diagnose originale :
 « Acaulis; foliis acuminatis, utrinque lepidibus cinereis patentibus vestitis; inflorescentia simplicissima, polystiche florigera; bracteis membranaceis, acutis vel caudatis; sepalis late oblanceolatis, dense lepidotis; petalis violaceis; staminibus exsertis. »
 Type :
 leg. T. Macdougall, s.n. [n° 1891930], 1947-12-31 ; « Mexico. Oaxaca: Lachatao (lower altitudes) » ; Holotypus US National Herbarium (US 00089251) Nb : le protologue cite un n° de collecte mais la planche en ligne est sine numero.</t>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[2],[1] ou saxicole[3]
-Habitat : milieux forestiers, sur conifères[2],[3] et chênes[3].
-Altitude : 2500-3000 m[2] ; 1800-3200 m[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte, ou saxicole
+Habitat : milieux forestiers, sur conifères, et chênes.
+Altitude : 2500-3000 m ; 1800-3200 m.</t>
         </is>
       </c>
     </row>
@@ -634,12 +654,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[3]
-Centre du Mexique (entre Puebla et Tehuacán)[2]
-Oaxaca[1]</t>
+ Mexique
+Centre du Mexique (entre Puebla et Tehuacán)
+Oaxaca</t>
         </is>
       </c>
     </row>
@@ -667,9 +689,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia macdougallii est réputée être de culture difficile et sensible à l'humidité persistante[2],[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia macdougallii est réputée être de culture difficile et sensible à l'humidité persistante,.
 </t>
         </is>
       </c>
